--- a/curation/templates/ScoringFileSchema.xlsx
+++ b/curation/templates/ScoringFileSchema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lg10/Workspace/git/fork/PGS_import/curation/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lg10/Workspace/git/fork/PGS_curation/curation/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864015A6-EDF0-9540-BE7D-10CE14920BAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471E1E6-97B8-D44B-A3C3-19FFD107B0F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37040" yWindow="2540" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{EEB73C32-DC8F-1B4B-BFFE-27FF268BF4B0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Column Header</t>
   </si>
@@ -219,12 +219,21 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>is_dominant</t>
+  </si>
+  <si>
+    <t>FLAG: Dominant Inheritance Model</t>
+  </si>
+  <si>
+    <t>This is a TRUE/FALSE variable that flags whether the weight should be added to the PGS sum if there is at least 1 copy of the effect allele (e.g. it is a dominant allele).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +277,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,6 +314,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040732F3-A12D-E644-952D-3CC6007072F3}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,97 +797,108 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/curation/templates/ScoringFileSchema.xlsx
+++ b/curation/templates/ScoringFileSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lg10/Workspace/git/fork/PGS_curation/curation/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471E1E6-97B8-D44B-A3C3-19FFD107B0F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74E0C15-BE25-654A-9C83-4C115445588C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37040" yWindow="2540" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{EEB73C32-DC8F-1B4B-BFFE-27FF268BF4B0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Column Header</t>
   </si>
@@ -73,12 +73,6 @@
     <t>The allele that is counted (e.g. dosage {0, 1, 2}) and multiplied by the weight</t>
   </si>
   <si>
-    <t>reference_allele</t>
-  </si>
-  <si>
-    <t>Reference Allele</t>
-  </si>
-  <si>
     <t>The other allele(s) at the loci</t>
   </si>
   <si>
@@ -89,15 +83,6 @@
   </si>
   <si>
     <t>Value of the effect that is multiplied with the dosage.</t>
-  </si>
-  <si>
-    <t>weight_type</t>
-  </si>
-  <si>
-    <t>Type of Weight</t>
-  </si>
-  <si>
-    <t>Whether the author supplied Variant Weight is a: beta (effect size), or something like an OR/HR (odds/hazard ratio)</t>
   </si>
   <si>
     <t>allelefrequency_effect</t>
@@ -304,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +301,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,14 +619,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -648,10 +634,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="8">
-        <v>44337</v>
+        <v>44545</v>
       </c>
     </row>
   </sheetData>
@@ -661,10 +647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040732F3-A12D-E644-952D-3CC6007072F3}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,141 +717,138 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>59</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>35</v>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -873,32 +856,13 @@
         <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/curation/templates/ScoringFileSchema.xlsx
+++ b/curation/templates/ScoringFileSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lg10/Workspace/git/fork/PGS_curation/curation/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74E0C15-BE25-654A-9C83-4C115445588C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E817F4-6EB0-C94A-A0A7-E1EF9EFD4F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37040" yWindow="2540" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{EEB73C32-DC8F-1B4B-BFFE-27FF268BF4B0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Column Header</t>
   </si>
@@ -213,12 +213,33 @@
   <si>
     <t>This is a TRUE/FALSE variable that flags whether the weight should be added to the PGS sum if there is at least 1 copy of the effect allele (e.g. it is a dominant allele).</t>
   </si>
+  <si>
+    <t>dosage_2_weight</t>
+  </si>
+  <si>
+    <t>dosage_1_weight</t>
+  </si>
+  <si>
+    <t>dosage_0_weight</t>
+  </si>
+  <si>
+    <t>Weights that are specific to different dosages of the effect_allele (e.g. {0, 1, 2} copies) can also be reported when the the contribution of the variants to the score is not encoded as additive, dominant, or recessive. In this case three columns are added corresponding to which variant weight should be applied for each dosage, where the column name is formated as dosage_#_weight where the # sign indicates the number of effect_allele copies.</t>
+  </si>
+  <si>
+    <t>Effect weight with 0 copy of the effect allele</t>
+  </si>
+  <si>
+    <t>Effect weight with 1 copy of the effect allele</t>
+  </si>
+  <si>
+    <t>Effect weight with 2 copy of the effect allele</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +289,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,6 +329,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040732F3-A12D-E644-952D-3CC6007072F3}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,6 +887,39 @@
         <v>47</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:B13"/>
